--- a/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
+++ b/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="524">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>5/4-6/2023</t>
+  </si>
+  <si>
+    <t>8/10,11/2023</t>
   </si>
 </sst>
 </file>
@@ -4399,9 +4402,9 @@
   <dimension ref="A2:K771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A636" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A654" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D640" sqref="D640"/>
+      <selection pane="bottomLeft" activeCell="K669" sqref="K669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4567,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.6870000000000687</v>
+        <v>9.4370000000000687</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4574,7 +4577,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.004000000000019</v>
+        <v>78.754000000000019</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19315,13 +19318,15 @@
       <c r="B667" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C667" s="13"/>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H667" s="39">
         <v>1</v>
@@ -19336,37 +19341,53 @@
       <c r="A668" s="40">
         <v>45139</v>
       </c>
-      <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
-      <c r="D668" s="39"/>
+      <c r="B668" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D668" s="39">
+        <v>2</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="20"/>
+      <c r="K668" s="20" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45170</v>
       </c>
-      <c r="B669" s="20"/>
-      <c r="C669" s="13"/>
+      <c r="B669" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H669" s="39"/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H669" s="39">
+        <v>1</v>
+      </c>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="50">
+        <v>45190</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">

--- a/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
+++ b/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1F2F8-516D-4567-9B5F-1F547FFC5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="528">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1624,7 +1623,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2499,7 +2498,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2541,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2605,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2665,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2731,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2794,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2892,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2951,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3016,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3059,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3134,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3320,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3386,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3444,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3510,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3566,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3641,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3684,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3750,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3806,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3905,7 +3904,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3967,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4016,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4034,25 +4033,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="17">
+    <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4064,13 +4063,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS" dataDxfId="6"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4079,14 +4078,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4390,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4400,7 +4399,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4408,34 +4407,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K774"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A663" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A663" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H675" sqref="H675"/>
+      <selection pane="bottomLeft" activeCell="K676" sqref="K676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4506,7 +4505,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4519,7 +4518,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4536,7 +4535,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4580,7 +4579,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.9370000000000687</v>
+        <v>10.187000000000069</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4590,12 +4589,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.254000000000019</v>
+        <v>76.504000000000019</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>54</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>33604</v>
       </c>
@@ -4633,7 +4632,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>33635</v>
       </c>
@@ -4653,7 +4652,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>33664</v>
       </c>
@@ -4673,7 +4672,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>33695</v>
       </c>
@@ -4693,7 +4692,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>33725</v>
       </c>
@@ -4713,7 +4712,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>33756</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>33786</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>33817</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>33848</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>33878</v>
       </c>
@@ -4813,7 +4812,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>33909</v>
       </c>
@@ -4833,7 +4832,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>33939</v>
       </c>
@@ -4853,7 +4852,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>33970</v>
       </c>
@@ -4891,7 +4890,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>34001</v>
       </c>
@@ -4911,7 +4910,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34029</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>34060</v>
       </c>
@@ -4951,7 +4950,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34090</v>
       </c>
@@ -4971,7 +4970,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34121</v>
       </c>
@@ -4991,7 +4990,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34151</v>
       </c>
@@ -5011,7 +5010,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34182</v>
       </c>
@@ -5031,7 +5030,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>34213</v>
       </c>
@@ -5051,7 +5050,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>34243</v>
       </c>
@@ -5075,7 +5074,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34274</v>
       </c>
@@ -5095,7 +5094,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34304</v>
       </c>
@@ -5115,7 +5114,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>42</v>
       </c>
@@ -5137,7 +5136,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34335</v>
       </c>
@@ -5157,7 +5156,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34366</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34394</v>
       </c>
@@ -5203,7 +5202,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34425</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34455</v>
       </c>
@@ -5249,7 +5248,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34486</v>
       </c>
@@ -5269,7 +5268,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34516</v>
       </c>
@@ -5293,7 +5292,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34547</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34578</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34608</v>
       </c>
@@ -5359,7 +5358,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34639</v>
       </c>
@@ -5379,7 +5378,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>34669</v>
       </c>
@@ -5399,7 +5398,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>50</v>
       </c>
@@ -5417,7 +5416,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>34700</v>
       </c>
@@ -5437,7 +5436,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>34731</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>34759</v>
       </c>
@@ -5483,7 +5482,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>34790</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>34820</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>34851</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>34881</v>
       </c>
@@ -5581,7 +5580,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>34912</v>
       </c>
@@ -5603,7 +5602,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>34943</v>
       </c>
@@ -5623,7 +5622,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>34973</v>
       </c>
@@ -5643,7 +5642,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35004</v>
       </c>
@@ -5663,7 +5662,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35034</v>
       </c>
@@ -5683,7 +5682,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>51</v>
       </c>
@@ -5703,7 +5702,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35065</v>
       </c>
@@ -5723,7 +5722,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35096</v>
       </c>
@@ -5743,7 +5742,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35125</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35156</v>
       </c>
@@ -5789,7 +5788,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35186</v>
       </c>
@@ -5809,7 +5808,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35217</v>
       </c>
@@ -5829,7 +5828,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>35247</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>53</v>
@@ -5877,7 +5876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35278</v>
       </c>
@@ -5897,7 +5896,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35309</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35339</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>68</v>
@@ -5971,7 +5970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35370</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35400</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -6037,7 +6036,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>73</v>
       </c>
@@ -6055,7 +6054,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35431</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>35582</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>35462</v>
       </c>
@@ -6101,7 +6100,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>35490</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35521</v>
       </c>
@@ -6147,7 +6146,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35551</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35582</v>
       </c>
@@ -6187,7 +6186,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35612</v>
       </c>
@@ -6213,7 +6212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35643</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>35674</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>35704</v>
       </c>
@@ -6279,7 +6278,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>35735</v>
       </c>
@@ -6303,7 +6302,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35765</v>
       </c>
@@ -6323,7 +6322,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>79</v>
       </c>
@@ -6341,7 +6340,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>35796</v>
       </c>
@@ -6365,7 +6364,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35827</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>35855</v>
       </c>
@@ -6411,7 +6410,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35886</v>
       </c>
@@ -6431,7 +6430,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35916</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35947</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35977</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>36008</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>86</v>
@@ -6551,7 +6550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>87</v>
@@ -6571,7 +6570,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36039</v>
       </c>
@@ -6591,7 +6590,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>36069</v>
       </c>
@@ -6615,7 +6614,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36100</v>
       </c>
@@ -6639,7 +6638,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36130</v>
       </c>
@@ -6663,7 +6662,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>91</v>
       </c>
@@ -6681,7 +6680,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36161</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36192</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6755,7 +6754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>96</v>
@@ -6775,7 +6774,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36220</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>98</v>
@@ -6821,7 +6820,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>36251</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>100</v>
@@ -6869,7 +6868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36281</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>56</v>
@@ -6919,7 +6918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>105</v>
@@ -6939,7 +6938,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36312</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>103</v>
@@ -6985,7 +6984,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36342</v>
       </c>
@@ -7009,7 +7008,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36373</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>36441</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -7057,7 +7056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36404</v>
       </c>
@@ -7081,7 +7080,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36434</v>
       </c>
@@ -7105,7 +7104,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>36465</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>112</v>
@@ -7151,7 +7150,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36495</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>115</v>
@@ -7197,7 +7196,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>61</v>
       </c>
@@ -7215,7 +7214,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>36526</v>
       </c>
@@ -7235,7 +7234,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>36557</v>
       </c>
@@ -7255,7 +7254,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36586</v>
       </c>
@@ -7273,7 +7272,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>36617</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36647</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>56</v>
@@ -7347,7 +7346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>80</v>
@@ -7369,7 +7368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36678</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>121</v>
@@ -7413,7 +7412,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>36708</v>
       </c>
@@ -7431,7 +7430,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>36739</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>36715</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>122</v>
@@ -7477,7 +7476,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="50"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>36770</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>36800</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>126</v>
@@ -7549,7 +7548,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>36831</v>
       </c>
@@ -7573,7 +7572,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>36861</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
         <v>128</v>
       </c>
@@ -7617,7 +7616,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>36892</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -7665,7 +7664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>36923</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>62</v>
@@ -7713,7 +7712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>36951</v>
       </c>
@@ -7733,7 +7732,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>36982</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37012</v>
       </c>
@@ -7779,7 +7778,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37043</v>
       </c>
@@ -7799,7 +7798,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37073</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37104</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37135</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37165</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37196</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>103</v>
@@ -7941,7 +7940,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37226</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>139</v>
@@ -7987,7 +7986,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>141</v>
       </c>
@@ -8005,7 +8004,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37257</v>
       </c>
@@ -8025,7 +8024,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37288</v>
       </c>
@@ -8045,7 +8044,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37316</v>
       </c>
@@ -8067,7 +8066,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>37347</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>144</v>
@@ -8113,7 +8112,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37377</v>
       </c>
@@ -8137,7 +8136,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37408</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>37438</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37469</v>
       </c>
@@ -8209,7 +8208,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37500</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37530</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37561</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>148</v>
@@ -8307,7 +8306,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37591</v>
       </c>
@@ -8331,7 +8330,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>151</v>
       </c>
@@ -8349,7 +8348,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37622</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>153</v>
@@ -8395,7 +8394,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37653</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>86</v>
@@ -8443,7 +8442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>155</v>
@@ -8463,7 +8462,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37681</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>126</v>
@@ -8509,7 +8508,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37712</v>
       </c>
@@ -8533,7 +8532,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>37742</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>37535</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>158</v>
@@ -8579,7 +8578,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="50"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37773</v>
       </c>
@@ -8603,7 +8602,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37803</v>
       </c>
@@ -8627,7 +8626,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>37834</v>
       </c>
@@ -8651,7 +8650,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37865</v>
       </c>
@@ -8675,7 +8674,7 @@
       <c r="J193" s="12"/>
       <c r="K193" s="15"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37895</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>53</v>
@@ -8723,7 +8722,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>165</v>
@@ -8743,7 +8742,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37926</v>
       </c>
@@ -8765,7 +8764,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8785,7 +8784,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>37956</v>
       </c>
@@ -8809,7 +8808,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>167</v>
       </c>
@@ -8827,7 +8826,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>53</v>
@@ -8875,7 +8874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8897,7 +8896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>169</v>
@@ -8917,7 +8916,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38018</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>173</v>
@@ -8963,7 +8962,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38047</v>
       </c>
@@ -8987,7 +8986,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>174</v>
@@ -9007,7 +9006,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38078</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>176</v>
@@ -9053,7 +9052,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38108</v>
       </c>
@@ -9079,7 +9078,7 @@
         <v>38326</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>56</v>
@@ -9101,7 +9100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>43</v>
@@ -9123,7 +9122,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>179</v>
@@ -9143,7 +9142,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="50"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38139</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>53</v>
@@ -9191,7 +9190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>181</v>
@@ -9211,7 +9210,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="50"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38169</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>183</v>
@@ -9257,7 +9256,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38200</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38231</v>
       </c>
@@ -9303,7 +9302,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>38261</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>60</v>
@@ -9351,7 +9350,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>53</v>
@@ -9373,7 +9372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>53</v>
@@ -9395,7 +9394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>43</v>
@@ -9417,7 +9416,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>187</v>
@@ -9437,7 +9436,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="48"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38292</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>192</v>
@@ -9483,7 +9482,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38322</v>
       </c>
@@ -9507,7 +9506,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>194</v>
       </c>
@@ -9525,7 +9524,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>38353</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>53</v>
@@ -9573,7 +9572,7 @@
         <v>38626</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>60</v>
@@ -9595,7 +9594,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>53</v>
@@ -9617,7 +9616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>197</v>
@@ -9637,7 +9636,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>198</v>
@@ -9657,7 +9656,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38384</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>202</v>
@@ -9703,7 +9702,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>38412</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>205</v>
@@ -9749,7 +9748,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>38443</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38473</v>
       </c>
@@ -9799,7 +9798,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>38504</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>60</v>
@@ -9847,7 +9846,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9869,7 +9868,7 @@
         <v>38571</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38534</v>
       </c>
@@ -9893,7 +9892,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>38565</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>38664</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>162</v>
@@ -9939,7 +9938,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="50"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38596</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>207</v>
@@ -9985,7 +9984,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>38626</v>
       </c>
@@ -10009,7 +10008,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38657</v>
       </c>
@@ -10033,7 +10032,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38687</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>53</v>
@@ -10079,7 +10078,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>217</v>
@@ -10099,7 +10098,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="47" t="s">
         <v>215</v>
       </c>
@@ -10117,7 +10116,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>38718</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>53</v>
@@ -10165,7 +10164,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>219</v>
@@ -10185,7 +10184,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="50"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>38749</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>56</v>
@@ -10233,7 +10232,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>53</v>
@@ -10255,7 +10254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>53</v>
@@ -10277,7 +10276,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>225</v>
@@ -10297,7 +10296,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>38777</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>53</v>
@@ -10345,7 +10344,7 @@
         <v>38841</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>226</v>
@@ -10365,7 +10364,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>38808</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>39025</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>227</v>
@@ -10411,7 +10410,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>229</v>
@@ -10431,7 +10430,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="50"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>38838</v>
       </c>
@@ -10455,7 +10454,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>38869</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>86</v>
@@ -10503,7 +10502,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>45</v>
@@ -10523,7 +10522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>233</v>
@@ -10543,7 +10542,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>38899</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -10591,7 +10590,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>56</v>
@@ -10613,7 +10612,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>45</v>
@@ -10635,7 +10634,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>193</v>
@@ -10655,7 +10654,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>38930</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>38784</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>86</v>
@@ -10703,7 +10702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>125</v>
@@ -10723,7 +10722,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="50"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>38961</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>53</v>
@@ -10771,7 +10770,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>240</v>
@@ -10791,7 +10790,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="50"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>38991</v>
       </c>
@@ -10815,7 +10814,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39022</v>
       </c>
@@ -10839,7 +10838,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39052</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="47" t="s">
         <v>244</v>
       </c>
@@ -10883,7 +10882,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39083</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>86</v>
@@ -10931,7 +10930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>246</v>
@@ -10951,7 +10950,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>247</v>
@@ -10971,7 +10970,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39114</v>
       </c>
@@ -10995,7 +10994,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39142</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>53</v>
@@ -11043,7 +11042,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -11063,7 +11062,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="50"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>252</v>
@@ -11083,7 +11082,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="50"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>39173</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>39359</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>253</v>
@@ -11129,7 +11128,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>53</v>
@@ -11151,7 +11150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>53</v>
@@ -11173,7 +11172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>254</v>
@@ -11193,7 +11192,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39203</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>53</v>
@@ -11241,7 +11240,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>258</v>
@@ -11261,7 +11260,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39234</v>
       </c>
@@ -11287,7 +11286,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>53</v>
@@ -11309,7 +11308,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>261</v>
@@ -11329,7 +11328,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>39264</v>
       </c>
@@ -11353,7 +11352,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>39295</v>
       </c>
@@ -11379,7 +11378,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>53</v>
@@ -11401,7 +11400,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>264</v>
@@ -11421,7 +11420,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>39326</v>
       </c>
@@ -11445,7 +11444,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>39356</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>39365</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11491,7 +11490,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="50"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>39387</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>269</v>
@@ -11535,7 +11534,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>39417</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>39184</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>56</v>
@@ -11583,7 +11582,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>269</v>
@@ -11601,7 +11600,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="47" t="s">
         <v>271</v>
       </c>
@@ -11619,7 +11618,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="50"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39448</v>
       </c>
@@ -11643,7 +11642,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>39479</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>273</v>
@@ -11689,7 +11688,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>53</v>
@@ -11711,7 +11710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>53</v>
@@ -11733,7 +11732,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>53</v>
@@ -11755,7 +11754,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>253</v>
@@ -11777,7 +11776,7 @@
         <v>39510</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>53</v>
@@ -11799,7 +11798,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>197</v>
@@ -11819,7 +11818,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>197</v>
@@ -11839,7 +11838,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11863,7 +11862,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>39539</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>285</v>
@@ -11905,7 +11904,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>39569</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>39634</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>53</v>
@@ -11953,7 +11952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>286</v>
@@ -11975,7 +11974,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>287</v>
@@ -11995,7 +11994,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>39600</v>
       </c>
@@ -12021,7 +12020,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>43</v>
@@ -12043,7 +12042,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>292</v>
@@ -12063,7 +12062,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>39630</v>
       </c>
@@ -12087,7 +12086,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>39661</v>
       </c>
@@ -12111,7 +12110,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39692</v>
       </c>
@@ -12135,7 +12134,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>39722</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>292</v>
@@ -12179,7 +12178,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="50"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>39753</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>295</v>
@@ -12223,7 +12222,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39783</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>297</v>
@@ -12267,7 +12266,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="47" t="s">
         <v>281</v>
       </c>
@@ -12285,7 +12284,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>39814</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>300</v>
@@ -12331,7 +12330,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>39845</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>302</v>
@@ -12377,7 +12376,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>39873</v>
       </c>
@@ -12401,7 +12400,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>304</v>
@@ -12421,7 +12420,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>39904</v>
       </c>
@@ -12445,7 +12444,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>39934</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>56</v>
@@ -12493,7 +12492,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>197</v>
@@ -12513,7 +12512,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>197</v>
@@ -12533,7 +12532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>308</v>
@@ -12553,7 +12552,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>39965</v>
       </c>
@@ -12579,7 +12578,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>310</v>
@@ -12599,7 +12598,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>39995</v>
       </c>
@@ -12623,7 +12622,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40026</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>40125</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>313</v>
@@ -12673,7 +12672,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>315</v>
@@ -12693,7 +12692,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="50"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40057</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>53</v>
@@ -12741,7 +12740,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>317</v>
@@ -12761,7 +12760,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="50"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40087</v>
       </c>
@@ -12785,7 +12784,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>40118</v>
       </c>
@@ -12809,7 +12808,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>40148</v>
       </c>
@@ -12833,7 +12832,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="47" t="s">
         <v>282</v>
       </c>
@@ -12851,7 +12850,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40179</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>322</v>
@@ -12897,7 +12896,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40210</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>207</v>
@@ -12943,7 +12942,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40238</v>
       </c>
@@ -12967,7 +12966,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40269</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>327</v>
@@ -13013,7 +13012,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>40299</v>
       </c>
@@ -13037,7 +13036,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40330</v>
       </c>
@@ -13061,7 +13060,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40360</v>
       </c>
@@ -13085,7 +13084,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40391</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>53</v>
@@ -13133,7 +13132,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>332</v>
@@ -13153,7 +13152,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40422</v>
       </c>
@@ -13177,7 +13176,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40452</v>
       </c>
@@ -13201,7 +13200,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>40483</v>
       </c>
@@ -13225,7 +13224,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>40513</v>
       </c>
@@ -13249,7 +13248,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="47" t="s">
         <v>321</v>
       </c>
@@ -13267,7 +13266,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>40544</v>
       </c>
@@ -13289,7 +13288,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40575</v>
       </c>
@@ -13313,7 +13312,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>336</v>
@@ -13333,7 +13332,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>40603</v>
       </c>
@@ -13357,7 +13356,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40634</v>
       </c>
@@ -13381,7 +13380,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>338</v>
@@ -13399,7 +13398,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40664</v>
       </c>
@@ -13425,7 +13424,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>87</v>
@@ -13443,7 +13442,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40695</v>
       </c>
@@ -13463,7 +13462,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>40725</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40756</v>
       </c>
@@ -13509,7 +13508,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>40787</v>
       </c>
@@ -13529,7 +13528,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>40817</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>40848</v>
       </c>
@@ -13575,7 +13574,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>40878</v>
       </c>
@@ -13601,7 +13600,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
         <v>345</v>
       </c>
@@ -13619,7 +13618,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>40909</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>40940</v>
       </c>
@@ -13663,7 +13662,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>40969</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41000</v>
       </c>
@@ -13715,7 +13714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>41030</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41061</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>41091</v>
       </c>
@@ -13787,7 +13786,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -13807,7 +13806,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>41153</v>
       </c>
@@ -13827,7 +13826,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>41183</v>
       </c>
@@ -13847,7 +13846,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41214</v>
       </c>
@@ -13867,7 +13866,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41244</v>
       </c>
@@ -13887,7 +13886,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="47" t="s">
         <v>351</v>
       </c>
@@ -13905,7 +13904,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41275</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>197</v>
@@ -13949,7 +13948,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41306</v>
       </c>
@@ -13975,7 +13974,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41334</v>
       </c>
@@ -13995,7 +13994,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41365</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>358</v>
@@ -14041,7 +14040,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41395</v>
       </c>
@@ -14061,7 +14060,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41426</v>
       </c>
@@ -14081,7 +14080,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41456</v>
       </c>
@@ -14101,7 +14100,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>41487</v>
       </c>
@@ -14121,7 +14120,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41518</v>
       </c>
@@ -14145,7 +14144,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41548</v>
       </c>
@@ -14169,7 +14168,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41579</v>
       </c>
@@ -14195,7 +14194,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>361</v>
@@ -14217,7 +14216,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41609</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>286</v>
@@ -14265,7 +14264,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>362</v>
@@ -14285,7 +14284,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>367</v>
       </c>
@@ -14303,7 +14302,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>41640</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>86</v>
@@ -14351,7 +14350,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>368</v>
@@ -14371,7 +14370,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="50"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>41671</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>370</v>
@@ -14417,7 +14416,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>41699</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>246</v>
@@ -14463,7 +14462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>372</v>
@@ -14483,7 +14482,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41730</v>
       </c>
@@ -14509,7 +14508,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>375</v>
@@ -14529,7 +14528,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41760</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>53</v>
@@ -14577,7 +14576,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>376</v>
@@ -14597,7 +14596,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41791</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>377</v>
@@ -14643,7 +14642,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>41821</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>41889</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -14691,7 +14690,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>378</v>
@@ -14711,7 +14710,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>41852</v>
       </c>
@@ -14737,7 +14736,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>292</v>
@@ -14757,7 +14756,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>41883</v>
       </c>
@@ -14783,7 +14782,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>379</v>
@@ -14803,7 +14802,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>41913</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>385</v>
@@ -14851,7 +14850,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>386</v>
@@ -14871,7 +14870,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>41944</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>53</v>
@@ -14919,7 +14918,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>387</v>
@@ -14939,7 +14938,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>41974</v>
       </c>
@@ -14963,7 +14962,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="47" t="s">
         <v>389</v>
       </c>
@@ -14981,7 +14980,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42005</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -15029,7 +15028,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>286</v>
@@ -15051,7 +15050,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>419</v>
@@ -15071,7 +15070,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42036</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>42249</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>162</v>
@@ -15115,7 +15114,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42064</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>292</v>
@@ -15159,7 +15158,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42095</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>53</v>
@@ -15201,7 +15200,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>395</v>
@@ -15221,7 +15220,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>42125</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>53</v>
@@ -15269,7 +15268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>399</v>
@@ -15291,7 +15290,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>42156</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>86</v>
@@ -15339,7 +15338,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>400</v>
@@ -15361,7 +15360,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42186</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>42042</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>401</v>
@@ -15409,7 +15408,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42217</v>
       </c>
@@ -15433,7 +15432,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>402</v>
@@ -15455,7 +15454,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>42248</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -15505,7 +15504,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>403</v>
@@ -15525,7 +15524,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42278</v>
       </c>
@@ -15551,7 +15550,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>56</v>
@@ -15575,7 +15574,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>53</v>
@@ -15597,7 +15596,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>404</v>
@@ -15617,7 +15616,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42309</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>42047</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>405</v>
@@ -15663,7 +15662,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42339</v>
       </c>
@@ -15687,7 +15686,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="47" t="s">
         <v>416</v>
       </c>
@@ -15705,7 +15704,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>42370</v>
       </c>
@@ -15728,7 +15727,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>425</v>
@@ -15748,7 +15747,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42401</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>68</v>
@@ -15798,7 +15797,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>197</v>
@@ -15818,7 +15817,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>418</v>
@@ -15838,7 +15837,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>42430</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>420</v>
@@ -15884,7 +15883,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42461</v>
       </c>
@@ -15910,7 +15909,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>421</v>
@@ -15930,7 +15929,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>42491</v>
       </c>
@@ -15956,7 +15955,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>423</v>
@@ -15976,7 +15975,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>42522</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>422</v>
@@ -16022,7 +16021,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>42552</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>424</v>
@@ -16068,7 +16067,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>42583</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>433</v>
@@ -16114,7 +16113,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>42614</v>
       </c>
@@ -16140,7 +16139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>56</v>
@@ -16162,7 +16161,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>56</v>
@@ -16184,7 +16183,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>434</v>
@@ -16204,7 +16203,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42644</v>
       </c>
@@ -16228,7 +16227,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>113</v>
@@ -16250,7 +16249,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>53</v>
@@ -16274,7 +16273,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>435</v>
@@ -16294,7 +16293,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>42675</v>
       </c>
@@ -16316,7 +16315,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42705</v>
       </c>
@@ -16342,7 +16341,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>437</v>
@@ -16362,7 +16361,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="47" t="s">
         <v>417</v>
       </c>
@@ -16380,7 +16379,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>42736</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>444</v>
@@ -16426,7 +16425,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="50"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42767</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>53</v>
@@ -16472,7 +16471,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>445</v>
@@ -16492,7 +16491,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>42795</v>
       </c>
@@ -16516,7 +16515,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>42826</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>456</v>
@@ -16562,7 +16561,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="50"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>42856</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>53</v>
@@ -16610,7 +16609,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>246</v>
@@ -16630,7 +16629,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>448</v>
@@ -16650,7 +16649,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42887</v>
       </c>
@@ -16674,7 +16673,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42917</v>
       </c>
@@ -16700,7 +16699,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16720,7 +16719,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>450</v>
@@ -16740,7 +16739,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>42948</v>
       </c>
@@ -16764,7 +16763,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42979</v>
       </c>
@@ -16788,7 +16787,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43009</v>
       </c>
@@ -16812,7 +16811,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43040</v>
       </c>
@@ -16838,7 +16837,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>43</v>
@@ -16860,7 +16859,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43070</v>
       </c>
@@ -16880,7 +16879,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="47" t="s">
         <v>458</v>
       </c>
@@ -16898,7 +16897,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43101</v>
       </c>
@@ -16918,7 +16917,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43132</v>
       </c>
@@ -16944,7 +16943,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>62</v>
@@ -16966,7 +16965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>53</v>
@@ -16988,7 +16987,7 @@
         <v>43134</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>43160</v>
       </c>
@@ -17008,7 +17007,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43191</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>53</v>
@@ -17056,7 +17055,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>468</v>
@@ -17078,7 +17077,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>56</v>
@@ -17100,7 +17099,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43221</v>
       </c>
@@ -17124,7 +17123,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43252</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>56</v>
@@ -17172,7 +17171,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>460</v>
@@ -17192,7 +17191,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43282</v>
       </c>
@@ -17218,7 +17217,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>461</v>
@@ -17238,7 +17237,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43313</v>
       </c>
@@ -17258,7 +17257,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43344</v>
       </c>
@@ -17282,7 +17281,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43374</v>
       </c>
@@ -17306,7 +17305,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43405</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>150</v>
@@ -17354,7 +17353,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43435</v>
       </c>
@@ -17380,7 +17379,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>474</v>
@@ -17402,7 +17401,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="47" t="s">
         <v>475</v>
       </c>
@@ -17420,7 +17419,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43466</v>
       </c>
@@ -17446,7 +17445,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>477</v>
@@ -17470,7 +17469,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43497</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43525</v>
       </c>
@@ -17516,7 +17515,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43556</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>43</v>
@@ -17566,7 +17565,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43586</v>
       </c>
@@ -17592,7 +17591,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>43617</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>53</v>
@@ -17642,7 +17641,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -17666,7 +17665,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>53</v>
@@ -17688,7 +17687,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43647</v>
       </c>
@@ -17708,7 +17707,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43678</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43709</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43739</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>62</v>
@@ -17810,7 +17809,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43770</v>
       </c>
@@ -17830,7 +17829,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43800</v>
       </c>
@@ -17850,7 +17849,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="47" t="s">
         <v>488</v>
       </c>
@@ -17868,7 +17867,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43831</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>489</v>
@@ -17914,7 +17913,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43862</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43891</v>
       </c>
@@ -17960,7 +17959,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43922</v>
       </c>
@@ -17980,7 +17979,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>43952</v>
       </c>
@@ -18000,7 +17999,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>43983</v>
       </c>
@@ -18020,7 +18019,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44013</v>
       </c>
@@ -18040,7 +18039,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44044</v>
       </c>
@@ -18060,7 +18059,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44075</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44105</v>
       </c>
@@ -18106,7 +18105,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44136</v>
       </c>
@@ -18126,7 +18125,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44166</v>
       </c>
@@ -18150,7 +18149,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="47" t="s">
         <v>493</v>
       </c>
@@ -18168,7 +18167,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44197</v>
       </c>
@@ -18188,7 +18187,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44228</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>53</v>
@@ -18236,7 +18235,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -18260,7 +18259,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>53</v>
@@ -18284,7 +18283,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>68</v>
@@ -18308,7 +18307,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>43</v>
@@ -18332,7 +18331,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>44256</v>
       </c>
@@ -18352,7 +18351,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>44287</v>
       </c>
@@ -18372,7 +18371,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>44317</v>
       </c>
@@ -18392,7 +18391,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44348</v>
       </c>
@@ -18412,7 +18411,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44378</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44409</v>
       </c>
@@ -18456,7 +18455,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44440</v>
       </c>
@@ -18476,7 +18475,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44470</v>
       </c>
@@ -18500,7 +18499,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44501</v>
       </c>
@@ -18526,7 +18525,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44531</v>
       </c>
@@ -18546,7 +18545,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="47" t="s">
         <v>492</v>
       </c>
@@ -18566,7 +18565,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44562</v>
       </c>
@@ -18586,7 +18585,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44593</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>197</v>
@@ -18630,7 +18629,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44621</v>
       </c>
@@ -18650,7 +18649,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44652</v>
       </c>
@@ -18670,7 +18669,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44682</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44713</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>56</v>
@@ -18746,7 +18745,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>520</v>
@@ -18766,7 +18765,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44743</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>56</v>
@@ -18816,7 +18815,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
         <v>43</v>
@@ -18840,7 +18839,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>59</v>
@@ -18864,7 +18863,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>56</v>
@@ -18888,7 +18887,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>197</v>
@@ -18910,7 +18909,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44774</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>521</v>
@@ -18956,7 +18955,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="50"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44805</v>
       </c>
@@ -18980,7 +18979,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44835</v>
       </c>
@@ -19006,7 +19005,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -19028,7 +19027,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>520</v>
@@ -19050,7 +19049,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44866</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44896</v>
       </c>
@@ -19102,7 +19101,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="47" t="s">
         <v>513</v>
       </c>
@@ -19120,7 +19119,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44927</v>
       </c>
@@ -19140,7 +19139,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44958</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -19188,7 +19187,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>53</v>
@@ -19210,7 +19209,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>44986</v>
       </c>
@@ -19230,7 +19229,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45017</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45047</v>
       </c>
@@ -19282,7 +19281,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
         <v>56</v>
@@ -19304,7 +19303,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>45078</v>
       </c>
@@ -19324,7 +19323,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>45108</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45139</v>
       </c>
@@ -19376,7 +19375,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45170</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45200</v>
       </c>
@@ -19428,7 +19427,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>45231</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>56</v>
@@ -19476,22 +19475,24 @@
         <v>525</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45261</v>
       </c>
       <c r="B673" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C673" s="13"/>
+      <c r="C673" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D673" s="39">
         <v>2</v>
       </c>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G673" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H673" s="39"/>
       <c r="I673" s="9"/>
@@ -19500,7 +19501,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>56</v>
@@ -19522,7 +19523,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="47" t="s">
         <v>524</v>
       </c>
@@ -19540,11 +19541,13 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45292</v>
       </c>
-      <c r="B676" s="20"/>
+      <c r="B676" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C676" s="13"/>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
@@ -19553,12 +19556,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H676" s="39"/>
+      <c r="H676" s="39">
+        <v>1</v>
+      </c>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20"/>
-    </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K676" s="50">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45323</v>
       </c>
@@ -19576,7 +19583,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45352</v>
       </c>
@@ -19594,7 +19601,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45383</v>
       </c>
@@ -19612,7 +19619,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45413</v>
       </c>
@@ -19630,7 +19637,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45444</v>
       </c>
@@ -19648,7 +19655,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45474</v>
       </c>
@@ -19666,7 +19673,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>45505</v>
       </c>
@@ -19684,7 +19691,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>45536</v>
       </c>
@@ -19702,7 +19709,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45566</v>
       </c>
@@ -19720,7 +19727,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>45597</v>
       </c>
@@ -19738,7 +19745,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>45627</v>
       </c>
@@ -19756,7 +19763,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>45658</v>
       </c>
@@ -19774,7 +19781,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>45689</v>
       </c>
@@ -19792,7 +19799,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>45717</v>
       </c>
@@ -19810,7 +19817,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>45748</v>
       </c>
@@ -19828,7 +19835,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>45778</v>
       </c>
@@ -19846,7 +19853,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>45809</v>
       </c>
@@ -19864,7 +19871,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>45839</v>
       </c>
@@ -19882,7 +19889,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>45870</v>
       </c>
@@ -19900,7 +19907,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>45901</v>
       </c>
@@ -19918,7 +19925,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>45931</v>
       </c>
@@ -19936,7 +19943,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>45962</v>
       </c>
@@ -19954,7 +19961,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>45992</v>
       </c>
@@ -19972,7 +19979,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>46023</v>
       </c>
@@ -19990,7 +19997,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>46054</v>
       </c>
@@ -20008,7 +20015,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>46082</v>
       </c>
@@ -20026,7 +20033,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>46113</v>
       </c>
@@ -20044,7 +20051,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>46143</v>
       </c>
@@ -20062,7 +20069,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>46174</v>
       </c>
@@ -20080,7 +20087,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>46204</v>
       </c>
@@ -20098,7 +20105,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>46235</v>
       </c>
@@ -20116,7 +20123,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>46266</v>
       </c>
@@ -20134,7 +20141,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>46296</v>
       </c>
@@ -20152,7 +20159,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>46327</v>
       </c>
@@ -20170,7 +20177,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>46357</v>
       </c>
@@ -20188,7 +20195,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>46388</v>
       </c>
@@ -20206,7 +20213,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>46419</v>
       </c>
@@ -20224,7 +20231,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>46447</v>
       </c>
@@ -20242,7 +20249,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>46478</v>
       </c>
@@ -20260,7 +20267,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>46508</v>
       </c>
@@ -20278,7 +20285,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>46539</v>
       </c>
@@ -20296,7 +20303,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>46569</v>
       </c>
@@ -20314,7 +20321,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>46600</v>
       </c>
@@ -20332,7 +20339,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>46631</v>
       </c>
@@ -20350,7 +20357,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>46661</v>
       </c>
@@ -20368,7 +20375,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>46692</v>
       </c>
@@ -20386,7 +20393,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>46722</v>
       </c>
@@ -20404,7 +20411,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>46753</v>
       </c>
@@ -20422,7 +20429,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>46784</v>
       </c>
@@ -20440,7 +20447,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>46813</v>
       </c>
@@ -20458,7 +20465,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>46844</v>
       </c>
@@ -20476,7 +20483,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>46874</v>
       </c>
@@ -20494,7 +20501,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>46905</v>
       </c>
@@ -20512,7 +20519,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>46935</v>
       </c>
@@ -20530,7 +20537,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>46966</v>
       </c>
@@ -20548,7 +20555,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>46997</v>
       </c>
@@ -20566,7 +20573,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>47027</v>
       </c>
@@ -20584,7 +20591,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>47058</v>
       </c>
@@ -20602,7 +20609,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>47088</v>
       </c>
@@ -20620,7 +20627,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>47119</v>
       </c>
@@ -20638,7 +20645,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>47150</v>
       </c>
@@ -20656,7 +20663,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>47178</v>
       </c>
@@ -20674,7 +20681,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>47209</v>
       </c>
@@ -20692,7 +20699,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>47239</v>
       </c>
@@ -20710,7 +20717,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>47270</v>
       </c>
@@ -20728,7 +20735,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>47300</v>
       </c>
@@ -20746,7 +20753,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
         <v>47331</v>
       </c>
@@ -20764,7 +20771,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
         <v>47362</v>
       </c>
@@ -20782,7 +20789,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>47392</v>
       </c>
@@ -20800,7 +20807,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
         <v>47423</v>
       </c>
@@ -20818,7 +20825,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>47453</v>
       </c>
@@ -20836,7 +20843,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
         <v>47484</v>
       </c>
@@ -20854,7 +20861,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
         <v>47515</v>
       </c>
@@ -20872,7 +20879,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>47543</v>
       </c>
@@ -20890,7 +20897,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
         <v>47574</v>
       </c>
@@ -20908,7 +20915,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>47604</v>
       </c>
@@ -20926,7 +20933,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
         <v>47635</v>
       </c>
@@ -20944,7 +20951,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
         <v>47665</v>
       </c>
@@ -20962,7 +20969,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>47696</v>
       </c>
@@ -20980,7 +20987,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
         <v>47727</v>
       </c>
@@ -20998,7 +21005,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
         <v>47757</v>
       </c>
@@ -21016,7 +21023,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>47788</v>
       </c>
@@ -21034,7 +21041,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
         <v>47818</v>
       </c>
@@ -21052,7 +21059,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
         <v>47849</v>
       </c>
@@ -21070,7 +21077,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <v>47880</v>
       </c>
@@ -21088,7 +21095,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <v>47908</v>
       </c>
@@ -21106,7 +21113,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
         <v>47939</v>
       </c>
@@ -21124,7 +21131,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
         <v>47969</v>
       </c>
@@ -21142,7 +21149,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
         <v>48000</v>
       </c>
@@ -21160,7 +21167,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
         <v>48030</v>
       </c>
@@ -21178,7 +21185,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
         <v>48061</v>
       </c>
@@ -21196,7 +21203,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
         <v>48092</v>
       </c>
@@ -21214,7 +21221,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
         <v>48122</v>
       </c>
@@ -21232,7 +21239,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
         <v>48153</v>
       </c>
@@ -21250,7 +21257,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -21266,7 +21273,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="51"/>
       <c r="B772" s="15"/>
       <c r="C772" s="41"/>
@@ -21282,7 +21289,7 @@
       <c r="J772" s="12"/>
       <c r="K772" s="15"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -21298,7 +21305,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -21330,10 +21337,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21356,7 +21363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -21364,21 +21371,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -21391,7 +21398,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21420,7 +21427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -21446,17 +21453,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21477,7 +21484,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21504,7 +21511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21530,7 +21537,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21556,7 +21563,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21582,7 +21589,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21608,7 +21615,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21634,7 +21641,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21660,7 +21667,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21686,7 +21693,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21706,7 +21713,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21726,7 +21733,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21746,7 +21753,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21767,7 +21774,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21788,7 +21795,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21809,7 +21816,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21830,7 +21837,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21851,7 +21858,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21872,7 +21879,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21893,7 +21900,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21914,7 +21921,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21935,7 +21942,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21956,7 +21963,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21977,7 +21984,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21998,7 +22005,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -22019,7 +22026,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -22040,7 +22047,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -22061,7 +22068,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -22082,7 +22089,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -22103,7 +22110,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -22124,7 +22131,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -22145,7 +22152,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -22166,7 +22173,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -22175,7 +22182,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -22184,7 +22191,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -22193,7 +22200,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -22202,7 +22209,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -22211,7 +22218,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -22220,7 +22227,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -22229,7 +22236,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -22238,7 +22245,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -22247,7 +22254,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -22256,7 +22263,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -22265,7 +22272,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -22274,7 +22281,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22283,7 +22290,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22292,7 +22299,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22301,7 +22308,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22310,7 +22317,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22319,7 +22326,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22328,7 +22335,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22337,7 +22344,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22346,7 +22353,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22355,7 +22362,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22364,7 +22371,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22373,7 +22380,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22382,7 +22389,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22391,7 +22398,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22400,7 +22407,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22409,7 +22416,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22418,7 +22425,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22427,7 +22434,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
+++ b/REGULAR/DSWD/ERIDAO, ROSALINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="528">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2498,7 +2498,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2541,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2605,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2665,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2794,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2892,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2951,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3016,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3059,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3134,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3320,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3386,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3444,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3510,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3566,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3641,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3684,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3750,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3806,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,7 +3904,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +3967,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4416,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A663" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K676" sqref="K676"/>
+      <selection pane="bottomLeft" activeCell="E669" sqref="E669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4579,7 +4579,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.187000000000069</v>
+        <v>11.437000000000069</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4589,7 +4589,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.504000000000019</v>
+        <v>76.754000000000019</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -19548,13 +19548,15 @@
       <c r="B676" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C676" s="13"/>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H676" s="39">
         <v>1</v>
@@ -19569,7 +19571,9 @@
       <c r="A677" s="40">
         <v>45323</v>
       </c>
-      <c r="B677" s="20"/>
+      <c r="B677" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C677" s="13"/>
       <c r="D677" s="39"/>
       <c r="E677" s="9"/>
@@ -19578,10 +19582,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H677" s="39"/>
+      <c r="H677" s="39">
+        <v>1</v>
+      </c>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="50">
+        <v>45327</v>
+      </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
